--- a/src/assets/zxsj_mb/zxtb_k134_rcpy3l.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k134_rcpy3l.xlsx
@@ -29,6 +29,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>本科</t>
     </r>
     <r>
@@ -45,6 +53,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>本科</t>
     </r>
     <r>
@@ -61,6 +77,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>本科</t>
     </r>
     <r>
@@ -77,6 +101,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>本科</t>
     </r>
     <r>
@@ -93,6 +125,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>本科</t>
     </r>
     <r>
@@ -109,6 +149,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>专科</t>
     </r>
     <r>
@@ -125,6 +173,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>专科</t>
     </r>
     <r>
@@ -141,6 +197,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>专科</t>
     </r>
     <r>
@@ -157,6 +221,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>专科</t>
     </r>
     <r>
@@ -187,8 +259,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -216,12 +288,94 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -230,46 +384,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,9 +408,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,59 +425,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -369,97 +441,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,79 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,6 +650,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -593,26 +674,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,8 +700,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -659,19 +727,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,137 +767,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,9 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,8 +1231,10 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="I13:J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
@@ -1222,7 +1293,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:13">
       <c r="A2" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -1248,22 +1319,22 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4">
-        <v>3</v>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:13">
       <c r="A3" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -1289,25 +1360,25 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2</v>
-      </c>
-      <c r="L3" s="4">
-        <v>3</v>
-      </c>
-      <c r="M3" s="4">
-        <v>4</v>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:13">
       <c r="A4" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>51252</v>
@@ -1330,25 +1401,25 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4">
-        <v>4</v>
-      </c>
-      <c r="M4" s="4">
-        <v>5</v>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:13">
       <c r="A5" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>51252</v>
@@ -1371,22 +1442,22 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <v>3</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4</v>
-      </c>
-      <c r="L5" s="4">
-        <v>5</v>
-      </c>
-      <c r="M5" s="4">
-        <v>6</v>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:13">
       <c r="A6" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -1412,22 +1483,22 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
-        <v>4</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>6</v>
-      </c>
-      <c r="M6" s="4">
-        <v>7</v>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:13">
       <c r="A7" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -1453,17 +1524,17 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4">
-        <v>6</v>
-      </c>
-      <c r="L7" s="4">
-        <v>7</v>
-      </c>
-      <c r="M7" s="4">
-        <v>8</v>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
